--- a/DOC/ストローク表示計算基準（同時施工）201605改訂 (1).xlsx
+++ b/DOC/ストローク表示計算基準（同時施工）201605改訂 (1).xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FLEX.NET2\DOC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E6BCB-3B6E-4A47-8698-C5F7392344B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ストローク・速度出力図" sheetId="1" r:id="rId1"/>
     <sheet name="ストローク速度計算フロー" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1173,7 +1188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2293,6 +2308,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2308,81 +2401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,9 +2412,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2428,6 +2443,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2450,7 +2468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2508,7 +2532,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2555,7 +2585,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2602,7 +2638,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2646,7 +2688,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2693,7 +2741,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2740,7 +2794,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2790,7 +2850,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2834,7 +2900,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2881,7 +2953,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2939,7 +3017,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2983,7 +3067,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3019,7 +3109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3061,7 +3151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3094,9 +3184,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3129,6 +3236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3304,7 +3428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3339,140 +3463,140 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="111" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="107"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="95"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="109"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="97"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="121" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114" t="s">
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117" t="s">
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118" t="s">
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="113" t="s">
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="114" t="s">
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="117" t="s">
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="118" t="s">
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="120"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="112"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="12"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -3539,10 +3663,10 @@
       <c r="AH5" s="9"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
@@ -3561,25 +3685,25 @@
       <c r="R6" s="20"/>
       <c r="S6" s="37"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="119" t="s">
         <v>30</v>
       </c>
       <c r="V6" s="20"/>
       <c r="W6" s="37"/>
       <c r="X6" s="27"/>
-      <c r="Y6" s="93" t="s">
+      <c r="Y6" s="119" t="s">
         <v>30</v>
       </c>
       <c r="Z6" s="20"/>
       <c r="AA6" s="37"/>
       <c r="AB6" s="27"/>
-      <c r="AC6" s="93" t="s">
+      <c r="AC6" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AD6" s="20"/>
       <c r="AE6" s="37"/>
       <c r="AF6" s="27"/>
-      <c r="AG6" s="93" t="s">
+      <c r="AG6" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AH6" s="53"/>
@@ -3605,19 +3729,19 @@
       <c r="R7" s="16"/>
       <c r="S7" s="38"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="120"/>
       <c r="V7" s="16"/>
       <c r="W7" s="38"/>
       <c r="X7" s="14"/>
-      <c r="Y7" s="94"/>
+      <c r="Y7" s="120"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="38"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="120"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="38"/>
       <c r="AF7" s="14"/>
-      <c r="AG7" s="94"/>
+      <c r="AG7" s="120"/>
       <c r="AH7" s="54"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.15">
@@ -3641,19 +3765,19 @@
       <c r="R8" s="16"/>
       <c r="S8" s="38"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="120"/>
       <c r="V8" s="16"/>
       <c r="W8" s="38"/>
       <c r="X8" s="14"/>
-      <c r="Y8" s="94"/>
+      <c r="Y8" s="120"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="38"/>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="120"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="38"/>
       <c r="AF8" s="14"/>
-      <c r="AG8" s="94"/>
+      <c r="AG8" s="120"/>
       <c r="AH8" s="54"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.15">
@@ -3677,19 +3801,19 @@
       <c r="R9" s="16"/>
       <c r="S9" s="38"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="120"/>
       <c r="V9" s="16"/>
       <c r="W9" s="38"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="94"/>
+      <c r="Y9" s="120"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="38"/>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="120"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="38"/>
       <c r="AF9" s="14"/>
-      <c r="AG9" s="94"/>
+      <c r="AG9" s="120"/>
       <c r="AH9" s="54"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.15">
@@ -3713,19 +3837,19 @@
       <c r="R10" s="16"/>
       <c r="S10" s="38"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="120"/>
       <c r="V10" s="16"/>
       <c r="W10" s="38"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="94"/>
+      <c r="Y10" s="120"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="94"/>
+      <c r="AC10" s="120"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="14"/>
-      <c r="AG10" s="94"/>
+      <c r="AG10" s="120"/>
       <c r="AH10" s="54"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.15">
@@ -3749,23 +3873,23 @@
       <c r="R11" s="16"/>
       <c r="S11" s="38"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="95"/>
+      <c r="U11" s="121"/>
       <c r="V11" s="16"/>
       <c r="W11" s="38"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="95"/>
+      <c r="Y11" s="121"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="38"/>
       <c r="AB11" s="14"/>
-      <c r="AC11" s="95"/>
+      <c r="AC11" s="121"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="14"/>
-      <c r="AG11" s="95"/>
+      <c r="AG11" s="121"/>
       <c r="AH11" s="54"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3789,13 +3913,13 @@
       <c r="R12" s="20"/>
       <c r="S12" s="37"/>
       <c r="T12" s="27"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="119" t="s">
         <v>30</v>
       </c>
       <c r="V12" s="20"/>
       <c r="W12" s="37"/>
       <c r="X12" s="49"/>
-      <c r="Y12" s="93" t="s">
+      <c r="Y12" s="119" t="s">
         <v>31</v>
       </c>
       <c r="Z12" s="20"/>
@@ -3805,13 +3929,13 @@
       <c r="AD12" s="20"/>
       <c r="AE12" s="37"/>
       <c r="AF12" s="27"/>
-      <c r="AG12" s="93" t="s">
+      <c r="AG12" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AH12" s="53"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A13" s="102"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3833,11 +3957,11 @@
       <c r="R13" s="16"/>
       <c r="S13" s="38"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="120"/>
       <c r="V13" s="16"/>
       <c r="W13" s="38"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="94"/>
+      <c r="Y13" s="120"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="15"/>
@@ -3845,11 +3969,11 @@
       <c r="AD13" s="16"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="14"/>
-      <c r="AG13" s="94"/>
+      <c r="AG13" s="120"/>
       <c r="AH13" s="54"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A14" s="102"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3871,11 +3995,11 @@
       <c r="R14" s="16"/>
       <c r="S14" s="38"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="120"/>
       <c r="V14" s="16"/>
       <c r="W14" s="38"/>
       <c r="X14" s="50"/>
-      <c r="Y14" s="94"/>
+      <c r="Y14" s="120"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="38"/>
       <c r="AB14" s="15"/>
@@ -3883,11 +4007,11 @@
       <c r="AD14" s="16"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="14"/>
-      <c r="AG14" s="94"/>
+      <c r="AG14" s="120"/>
       <c r="AH14" s="54"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A15" s="102"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
@@ -3909,11 +4033,11 @@
       <c r="R15" s="16"/>
       <c r="S15" s="38"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="120"/>
       <c r="V15" s="16"/>
       <c r="W15" s="38"/>
       <c r="X15" s="50"/>
-      <c r="Y15" s="94"/>
+      <c r="Y15" s="120"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="15"/>
@@ -3921,11 +4045,11 @@
       <c r="AD15" s="16"/>
       <c r="AE15" s="38"/>
       <c r="AF15" s="14"/>
-      <c r="AG15" s="94"/>
+      <c r="AG15" s="120"/>
       <c r="AH15" s="54"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A16" s="103"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
@@ -3947,11 +4071,11 @@
       <c r="R16" s="25"/>
       <c r="S16" s="39"/>
       <c r="T16" s="23"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="121"/>
       <c r="V16" s="25"/>
       <c r="W16" s="39"/>
       <c r="X16" s="51"/>
-      <c r="Y16" s="95"/>
+      <c r="Y16" s="121"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="24"/>
@@ -3959,11 +4083,11 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="39"/>
       <c r="AF16" s="23"/>
-      <c r="AG16" s="95"/>
+      <c r="AG16" s="121"/>
       <c r="AH16" s="55"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="101" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3987,31 +4111,31 @@
       <c r="R17" s="16"/>
       <c r="S17" s="38"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="93" t="s">
+      <c r="U17" s="119" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="16"/>
       <c r="W17" s="38"/>
       <c r="X17" s="14"/>
-      <c r="Y17" s="93" t="s">
+      <c r="Y17" s="119" t="s">
         <v>30</v>
       </c>
       <c r="Z17" s="16"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="50"/>
-      <c r="AC17" s="93" t="s">
+      <c r="AC17" s="119" t="s">
         <v>31</v>
       </c>
       <c r="AD17" s="16"/>
       <c r="AE17" s="38"/>
       <c r="AF17" s="50"/>
-      <c r="AG17" s="93" t="s">
+      <c r="AG17" s="119" t="s">
         <v>31</v>
       </c>
       <c r="AH17" s="54"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A18" s="102"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
@@ -4033,23 +4157,23 @@
       <c r="R18" s="16"/>
       <c r="S18" s="38"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="94"/>
+      <c r="U18" s="120"/>
       <c r="V18" s="16"/>
       <c r="W18" s="38"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="94"/>
+      <c r="Y18" s="120"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="50"/>
-      <c r="AC18" s="94"/>
+      <c r="AC18" s="120"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="38"/>
       <c r="AF18" s="50"/>
-      <c r="AG18" s="94"/>
+      <c r="AG18" s="120"/>
       <c r="AH18" s="54"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A19" s="102"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -4071,23 +4195,23 @@
       <c r="R19" s="16"/>
       <c r="S19" s="38"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="94"/>
+      <c r="U19" s="120"/>
       <c r="V19" s="16"/>
       <c r="W19" s="38"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="94"/>
+      <c r="Y19" s="120"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="38"/>
       <c r="AB19" s="50"/>
-      <c r="AC19" s="94"/>
+      <c r="AC19" s="120"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="38"/>
       <c r="AF19" s="50"/>
-      <c r="AG19" s="94"/>
+      <c r="AG19" s="120"/>
       <c r="AH19" s="54"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A20" s="102"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4109,23 +4233,23 @@
       <c r="R20" s="16"/>
       <c r="S20" s="38"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="94"/>
+      <c r="U20" s="120"/>
       <c r="V20" s="16"/>
       <c r="W20" s="38"/>
       <c r="X20" s="14"/>
-      <c r="Y20" s="94"/>
+      <c r="Y20" s="120"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="38"/>
       <c r="AB20" s="50"/>
-      <c r="AC20" s="94"/>
+      <c r="AC20" s="120"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="38"/>
       <c r="AF20" s="50"/>
-      <c r="AG20" s="94"/>
+      <c r="AG20" s="120"/>
       <c r="AH20" s="54"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A21" s="102"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4147,23 +4271,23 @@
       <c r="R21" s="16"/>
       <c r="S21" s="38"/>
       <c r="T21" s="14"/>
-      <c r="U21" s="95"/>
+      <c r="U21" s="121"/>
       <c r="V21" s="16"/>
       <c r="W21" s="38"/>
       <c r="X21" s="14"/>
-      <c r="Y21" s="95"/>
+      <c r="Y21" s="121"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="38"/>
       <c r="AB21" s="50"/>
-      <c r="AC21" s="95"/>
+      <c r="AC21" s="121"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="38"/>
       <c r="AF21" s="50"/>
-      <c r="AG21" s="95"/>
+      <c r="AG21" s="121"/>
       <c r="AH21" s="54"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="100" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -4187,7 +4311,7 @@
       <c r="R22" s="20"/>
       <c r="S22" s="37"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="93" t="s">
+      <c r="U22" s="119" t="s">
         <v>30</v>
       </c>
       <c r="V22" s="20"/>
@@ -4197,19 +4321,19 @@
       <c r="Z22" s="20"/>
       <c r="AA22" s="37"/>
       <c r="AB22" s="27"/>
-      <c r="AC22" s="93" t="s">
+      <c r="AC22" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AD22" s="20"/>
       <c r="AE22" s="37"/>
       <c r="AF22" s="27"/>
-      <c r="AG22" s="93" t="s">
+      <c r="AG22" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AH22" s="53"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A23" s="102"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
@@ -4231,7 +4355,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="38"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="94"/>
+      <c r="U23" s="120"/>
       <c r="V23" s="16"/>
       <c r="W23" s="38"/>
       <c r="X23" s="15"/>
@@ -4239,15 +4363,15 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="38"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="94"/>
+      <c r="AC23" s="120"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="38"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="94"/>
+      <c r="AG23" s="120"/>
       <c r="AH23" s="54"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A24" s="102"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
@@ -4269,7 +4393,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="38"/>
       <c r="T24" s="14"/>
-      <c r="U24" s="94"/>
+      <c r="U24" s="120"/>
       <c r="V24" s="16"/>
       <c r="W24" s="38"/>
       <c r="X24" s="15"/>
@@ -4277,15 +4401,15 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="38"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="94"/>
+      <c r="AC24" s="120"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="38"/>
       <c r="AF24" s="14"/>
-      <c r="AG24" s="94"/>
+      <c r="AG24" s="120"/>
       <c r="AH24" s="54"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A25" s="102"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
@@ -4307,7 +4431,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="38"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="94"/>
+      <c r="U25" s="120"/>
       <c r="V25" s="16"/>
       <c r="W25" s="38"/>
       <c r="X25" s="15"/>
@@ -4315,15 +4439,15 @@
       <c r="Z25" s="16"/>
       <c r="AA25" s="38"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="94"/>
+      <c r="AC25" s="120"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="38"/>
       <c r="AF25" s="14"/>
-      <c r="AG25" s="94"/>
+      <c r="AG25" s="120"/>
       <c r="AH25" s="54"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A26" s="103"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
@@ -4345,7 +4469,7 @@
       <c r="R26" s="25"/>
       <c r="S26" s="39"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="95"/>
+      <c r="U26" s="121"/>
       <c r="V26" s="25"/>
       <c r="W26" s="39"/>
       <c r="X26" s="52"/>
@@ -4353,15 +4477,15 @@
       <c r="Z26" s="25"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="23"/>
-      <c r="AC26" s="95"/>
+      <c r="AC26" s="121"/>
       <c r="AD26" s="25"/>
       <c r="AE26" s="39"/>
       <c r="AF26" s="23"/>
-      <c r="AG26" s="95"/>
+      <c r="AG26" s="121"/>
       <c r="AH26" s="55"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="101" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4385,19 +4509,19 @@
       <c r="R27" s="16"/>
       <c r="S27" s="38"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="93" t="s">
+      <c r="U27" s="119" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="16"/>
       <c r="W27" s="38"/>
       <c r="X27" s="14"/>
-      <c r="Y27" s="93" t="s">
+      <c r="Y27" s="119" t="s">
         <v>30</v>
       </c>
       <c r="Z27" s="16"/>
       <c r="AA27" s="38"/>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="93" t="s">
+      <c r="AC27" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AD27" s="16"/>
@@ -4407,7 +4531,7 @@
       <c r="AH27" s="54"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A28" s="102"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
@@ -4429,15 +4553,15 @@
       <c r="R28" s="16"/>
       <c r="S28" s="38"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="94"/>
+      <c r="U28" s="120"/>
       <c r="V28" s="16"/>
       <c r="W28" s="38"/>
       <c r="X28" s="14"/>
-      <c r="Y28" s="94"/>
+      <c r="Y28" s="120"/>
       <c r="Z28" s="16"/>
       <c r="AA28" s="38"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="94"/>
+      <c r="AC28" s="120"/>
       <c r="AD28" s="16"/>
       <c r="AE28" s="38"/>
       <c r="AF28" s="15"/>
@@ -4445,7 +4569,7 @@
       <c r="AH28" s="54"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A29" s="102"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
@@ -4467,15 +4591,15 @@
       <c r="R29" s="16"/>
       <c r="S29" s="38"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="94"/>
+      <c r="U29" s="120"/>
       <c r="V29" s="16"/>
       <c r="W29" s="38"/>
       <c r="X29" s="14"/>
-      <c r="Y29" s="94"/>
+      <c r="Y29" s="120"/>
       <c r="Z29" s="16"/>
       <c r="AA29" s="38"/>
       <c r="AB29" s="14"/>
-      <c r="AC29" s="94"/>
+      <c r="AC29" s="120"/>
       <c r="AD29" s="16"/>
       <c r="AE29" s="38"/>
       <c r="AF29" s="15"/>
@@ -4483,7 +4607,7 @@
       <c r="AH29" s="54"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A30" s="102"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
@@ -4505,15 +4629,15 @@
       <c r="R30" s="16"/>
       <c r="S30" s="38"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="94"/>
+      <c r="U30" s="120"/>
       <c r="V30" s="16"/>
       <c r="W30" s="38"/>
       <c r="X30" s="14"/>
-      <c r="Y30" s="94"/>
+      <c r="Y30" s="120"/>
       <c r="Z30" s="16"/>
       <c r="AA30" s="38"/>
       <c r="AB30" s="14"/>
-      <c r="AC30" s="94"/>
+      <c r="AC30" s="120"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="38"/>
       <c r="AF30" s="15"/>
@@ -4521,7 +4645,7 @@
       <c r="AH30" s="54"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A31" s="102"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
@@ -4547,11 +4671,11 @@
       <c r="V31" s="16"/>
       <c r="W31" s="38"/>
       <c r="X31" s="14"/>
-      <c r="Y31" s="95"/>
+      <c r="Y31" s="121"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="38"/>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="95"/>
+      <c r="AC31" s="121"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="38"/>
       <c r="AF31" s="15"/>
@@ -4559,7 +4683,7 @@
       <c r="AH31" s="54"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="100" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -4587,25 +4711,25 @@
       <c r="V32" s="20"/>
       <c r="W32" s="37"/>
       <c r="X32" s="27"/>
-      <c r="Y32" s="93" t="s">
+      <c r="Y32" s="119" t="s">
         <v>30</v>
       </c>
       <c r="Z32" s="20"/>
       <c r="AA32" s="37"/>
       <c r="AB32" s="27"/>
-      <c r="AC32" s="93" t="s">
+      <c r="AC32" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AD32" s="20"/>
       <c r="AE32" s="37"/>
       <c r="AF32" s="27"/>
-      <c r="AG32" s="93" t="s">
+      <c r="AG32" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AH32" s="53"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A33" s="102"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
@@ -4631,19 +4755,19 @@
       <c r="V33" s="16"/>
       <c r="W33" s="38"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="94"/>
+      <c r="Y33" s="120"/>
       <c r="Z33" s="16"/>
       <c r="AA33" s="38"/>
       <c r="AB33" s="14"/>
-      <c r="AC33" s="94"/>
+      <c r="AC33" s="120"/>
       <c r="AD33" s="16"/>
       <c r="AE33" s="38"/>
       <c r="AF33" s="14"/>
-      <c r="AG33" s="94"/>
+      <c r="AG33" s="120"/>
       <c r="AH33" s="54"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A34" s="102"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
@@ -4669,19 +4793,19 @@
       <c r="V34" s="16"/>
       <c r="W34" s="38"/>
       <c r="X34" s="14"/>
-      <c r="Y34" s="94"/>
+      <c r="Y34" s="120"/>
       <c r="Z34" s="16"/>
       <c r="AA34" s="38"/>
       <c r="AB34" s="14"/>
-      <c r="AC34" s="94"/>
+      <c r="AC34" s="120"/>
       <c r="AD34" s="16"/>
       <c r="AE34" s="38"/>
       <c r="AF34" s="14"/>
-      <c r="AG34" s="94"/>
+      <c r="AG34" s="120"/>
       <c r="AH34" s="54"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A35" s="102"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
@@ -4707,19 +4831,19 @@
       <c r="V35" s="16"/>
       <c r="W35" s="38"/>
       <c r="X35" s="14"/>
-      <c r="Y35" s="94"/>
+      <c r="Y35" s="120"/>
       <c r="Z35" s="16"/>
       <c r="AA35" s="38"/>
       <c r="AB35" s="14"/>
-      <c r="AC35" s="94"/>
+      <c r="AC35" s="120"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="38"/>
       <c r="AF35" s="14"/>
-      <c r="AG35" s="94"/>
+      <c r="AG35" s="120"/>
       <c r="AH35" s="54"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A36" s="103"/>
+      <c r="A36" s="102"/>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
@@ -4745,11 +4869,11 @@
       <c r="V36" s="25"/>
       <c r="W36" s="39"/>
       <c r="X36" s="23"/>
-      <c r="Y36" s="95"/>
+      <c r="Y36" s="121"/>
       <c r="Z36" s="25"/>
       <c r="AA36" s="39"/>
       <c r="AB36" s="23"/>
-      <c r="AC36" s="95"/>
+      <c r="AC36" s="121"/>
       <c r="AD36" s="25"/>
       <c r="AE36" s="39"/>
       <c r="AF36" s="23"/>
@@ -4757,7 +4881,7 @@
       <c r="AH36" s="55"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="100" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -4785,25 +4909,25 @@
       <c r="V37" s="20"/>
       <c r="W37" s="37"/>
       <c r="X37" s="27"/>
-      <c r="Y37" s="93" t="s">
+      <c r="Y37" s="119" t="s">
         <v>30</v>
       </c>
       <c r="Z37" s="20"/>
       <c r="AA37" s="37"/>
       <c r="AB37" s="27"/>
-      <c r="AC37" s="93" t="s">
+      <c r="AC37" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AD37" s="20"/>
       <c r="AE37" s="37"/>
       <c r="AF37" s="27"/>
-      <c r="AG37" s="93" t="s">
+      <c r="AG37" s="119" t="s">
         <v>30</v>
       </c>
       <c r="AH37" s="53"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A38" s="102"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
@@ -4829,19 +4953,19 @@
       <c r="V38" s="16"/>
       <c r="W38" s="38"/>
       <c r="X38" s="14"/>
-      <c r="Y38" s="94"/>
+      <c r="Y38" s="120"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="38"/>
       <c r="AB38" s="14"/>
-      <c r="AC38" s="94"/>
+      <c r="AC38" s="120"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="38"/>
       <c r="AF38" s="14"/>
-      <c r="AG38" s="94"/>
+      <c r="AG38" s="120"/>
       <c r="AH38" s="54"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A39" s="102"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
@@ -4867,19 +4991,19 @@
       <c r="V39" s="16"/>
       <c r="W39" s="38"/>
       <c r="X39" s="14"/>
-      <c r="Y39" s="94"/>
+      <c r="Y39" s="120"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="38"/>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="94"/>
+      <c r="AC39" s="120"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="38"/>
       <c r="AF39" s="14"/>
-      <c r="AG39" s="94"/>
+      <c r="AG39" s="120"/>
       <c r="AH39" s="54"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A40" s="102"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="3" t="s">
         <v>14</v>
       </c>
@@ -4905,19 +5029,19 @@
       <c r="V40" s="16"/>
       <c r="W40" s="38"/>
       <c r="X40" s="14"/>
-      <c r="Y40" s="94"/>
+      <c r="Y40" s="120"/>
       <c r="Z40" s="16"/>
       <c r="AA40" s="38"/>
       <c r="AB40" s="14"/>
-      <c r="AC40" s="94"/>
+      <c r="AC40" s="120"/>
       <c r="AD40" s="16"/>
       <c r="AE40" s="38"/>
       <c r="AF40" s="14"/>
-      <c r="AG40" s="94"/>
+      <c r="AG40" s="120"/>
       <c r="AH40" s="54"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A41" s="103"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="11" t="s">
         <v>15</v>
       </c>
@@ -4943,22 +5067,22 @@
       <c r="V41" s="25"/>
       <c r="W41" s="39"/>
       <c r="X41" s="23"/>
-      <c r="Y41" s="95"/>
+      <c r="Y41" s="121"/>
       <c r="Z41" s="25"/>
       <c r="AA41" s="39"/>
       <c r="AB41" s="23"/>
-      <c r="AC41" s="95"/>
+      <c r="AC41" s="121"/>
       <c r="AD41" s="25"/>
       <c r="AE41" s="39"/>
       <c r="AF41" s="23"/>
-      <c r="AG41" s="95"/>
+      <c r="AG41" s="121"/>
       <c r="AH41" s="55"/>
     </row>
     <row r="42" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99" t="s">
+      <c r="A42" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="100"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="33"/>
       <c r="D42" s="34"/>
       <c r="E42" s="35"/>
@@ -5041,10 +5165,10 @@
       <c r="G49" t="s">
         <v>36</v>
       </c>
-      <c r="T49" s="96" t="s">
+      <c r="T49" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="U49" s="97"/>
+      <c r="U49" s="123"/>
       <c r="V49" s="98"/>
       <c r="X49" t="s">
         <v>39</v>
@@ -5052,25 +5176,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:AH3"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C2:AH2"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="Y37:Y41"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AG37:AG41"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="Y32:Y36"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AG32:AG35"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="Y6:Y11"/>
@@ -5087,15 +5201,25 @@
     <mergeCell ref="AC22:AC26"/>
     <mergeCell ref="AG22:AG26"/>
     <mergeCell ref="U27:U30"/>
-    <mergeCell ref="Y37:Y41"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AG37:AG41"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="Y32:Y36"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AG32:AG35"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:AH3"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C2:AH2"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -5106,7 +5230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5126,26 +5250,26 @@
       <c r="C1" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="93" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="86"/>
-      <c r="M2" s="127"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
@@ -5162,12 +5286,12 @@
         <v>43</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
@@ -5180,12 +5304,12 @@
       <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
@@ -5198,7 +5322,7 @@
       <c r="H6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="127" t="s">
+      <c r="J6" s="93" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5213,17 +5337,17 @@
       <c r="H7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="93" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="93" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="93" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5233,15 +5357,15 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="122" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="98"/>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E12" s="7" t="s">
@@ -5346,28 +5470,28 @@
     </row>
     <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="126"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="126"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="123" t="s">
+      <c r="D28" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="126"/>
     </row>
     <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -5395,14 +5519,14 @@
     </row>
     <row r="37" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="126"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G39" s="87" t="s">
@@ -5418,12 +5542,12 @@
     <row r="42" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="D42" s="123" t="s">
+      <c r="D42" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="126"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
@@ -5490,11 +5614,11 @@
     </row>
     <row r="48" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="4:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G49" s="123" t="s">
+      <c r="G49" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="H49" s="124"/>
-      <c r="I49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="126"/>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.15">
       <c r="G50" s="77"/>
@@ -5520,12 +5644,12 @@
       <c r="M51" s="81"/>
     </row>
     <row r="52" spans="4:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="123" t="s">
+      <c r="D52" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="126"/>
     </row>
     <row r="53" spans="4:13" x14ac:dyDescent="0.15">
       <c r="F53" s="90" t="s">
@@ -5557,6 +5681,9 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J3:O5"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="G20:H22"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="D28:G28"/>
@@ -5566,9 +5693,6 @@
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="J3:O5"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="G20:H22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -5579,7 +5703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
